--- a/experiments/programs/SeeDB_python/DiViz_airbnb/neighbourhood='Queens'.xlsx
+++ b/experiments/programs/SeeDB_python/DiViz_airbnb/neighbourhood='Queens'.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>0.43857696152388898</v>
+        <v>0.45250000493128129</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -472,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>0.37840842667849511</v>
+        <v>0.37882666467276682</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -486,7 +486,7 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>0.31771746166227183</v>
+        <v>0.31780990003938608</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -500,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>0.28692163372091439</v>
+        <v>0.28691868813412091</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -514,7 +514,7 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>0.28081865419576479</v>
+        <v>0.28081409321772771</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -528,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>0.26415055017447953</v>
+        <v>0.26410165290955739</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -542,26 +542,26 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>0.25444628498153182</v>
+        <v>0.25444138476137063</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>0.24545968683241201</v>
+        <v>0.24532993810850559</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -570,21 +570,21 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>0.24532993810850559</v>
+        <v>0.24246143941946541</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>0.24246143941946541</v>
+        <v>0.23871980268342199</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>0.23757631480408811</v>
+        <v>0.23763766860886121</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>0.2341212204980736</v>
+        <v>0.23405978856217069</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <v>0.23007842637661571</v>
+        <v>0.23013527484579541</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>11</v>
       </c>
       <c r="D15">
-        <v>0.19244571934375049</v>
+        <v>0.19123643184463299</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <v>0.1735294984748621</v>
+        <v>0.17345922013185111</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -696,35 +696,35 @@
         <v>11</v>
       </c>
       <c r="D19">
-        <v>0.15299228410918839</v>
+        <v>0.15105691105005109</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
       </c>
       <c r="D20">
-        <v>0.14477921289786619</v>
+        <v>0.14118685562924541</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21">
-        <v>0.14118674373919099</v>
+        <v>0.13915027197758581</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>12</v>
       </c>
       <c r="D23">
-        <v>0.1342009415277256</v>
+        <v>0.1342021171042401</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -766,7 +766,7 @@
         <v>12</v>
       </c>
       <c r="D24">
-        <v>0.10899954335739211</v>
+        <v>0.1090054756426465</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -780,7 +780,7 @@
         <v>12</v>
       </c>
       <c r="D25">
-        <v>7.6530925699863681E-2</v>
+        <v>7.6511500658824491E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -808,7 +808,7 @@
         <v>12</v>
       </c>
       <c r="D27">
-        <v>4.5135158178953243E-2</v>
+        <v>4.5098252980663153E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -822,7 +822,7 @@
         <v>12</v>
       </c>
       <c r="D28">
-        <v>3.8822322577727962E-2</v>
+        <v>3.8834788564984221E-2</v>
       </c>
     </row>
   </sheetData>
